--- a/Assets/Excel/TestExcel.xlsx
+++ b/Assets/Excel/TestExcel.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestHeihei" sheetId="1" r:id="rId1"/>
+    <sheet name="hhoho" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>一个注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +46,48 @@
   </si>
   <si>
     <t>zxc|int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>1,1,4</t>
+  </si>
+  <si>
+    <t>1,1,5</t>
+  </si>
+  <si>
+    <t>1,1,6</t>
+  </si>
+  <si>
+    <t>1,1,7</t>
+  </si>
+  <si>
+    <t>1,1,8</t>
+  </si>
+  <si>
+    <t>1,1,9</t>
+  </si>
+  <si>
+    <t>1,1,10</t>
+  </si>
+  <si>
+    <t>1,1,11</t>
+  </si>
+  <si>
+    <t>test|Vector3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量哦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,4 +632,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Assets/Excel/TestExcel.xlsx
+++ b/Assets/Excel/TestExcel.xlsx
@@ -83,11 +83,11 @@
     <t>1,1,11</t>
   </si>
   <si>
-    <t>test|Vector3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>向量哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test|string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -649,7 +647,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -663,7 +661,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>

--- a/Assets/Excel/TestExcel.xlsx
+++ b/Assets/Excel/TestExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="TestHeihei" sheetId="1" r:id="rId1"/>
     <sheet name="hhoho" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>一个注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,14 +88,18 @@
   </si>
   <si>
     <t>test|string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sad|float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,10 +229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,16 +438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -459,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -473,7 +475,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -487,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -501,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -515,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -529,7 +531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -543,7 +545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -557,7 +559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -571,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -585,7 +587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -599,7 +601,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -613,7 +615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>1</v>
       </c>
@@ -635,17 +637,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -653,13 +657,13 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -673,7 +677,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -687,7 +691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -701,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -715,7 +719,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -729,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -743,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -757,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -771,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -785,7 +789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -799,7 +803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -813,7 +817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>18</v>
       </c>
